--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H2">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N2">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O2">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P2">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q2">
-        <v>11.47778567919621</v>
+        <v>0.1763635350906666</v>
       </c>
       <c r="R2">
-        <v>11.47778567919621</v>
+        <v>1.058181210544</v>
       </c>
       <c r="S2">
-        <v>0.1235932233630885</v>
+        <v>0.000842242600317467</v>
       </c>
       <c r="T2">
-        <v>0.1235932233630885</v>
+        <v>0.000590452567045459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H3">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N3">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P3">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q3">
-        <v>3.276518958458501</v>
+        <v>0.05622243720644444</v>
       </c>
       <c r="R3">
-        <v>3.276518958458501</v>
+        <v>0.5060019348579999</v>
       </c>
       <c r="S3">
-        <v>0.03528167808710248</v>
+        <v>0.0002684961587132942</v>
       </c>
       <c r="T3">
-        <v>0.03528167808710248</v>
+        <v>0.0002823430792286329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H4">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N4">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O4">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P4">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q4">
-        <v>22.9945999048528</v>
+        <v>0.4187137787764443</v>
       </c>
       <c r="R4">
-        <v>22.9945999048528</v>
+        <v>3.768424008988</v>
       </c>
       <c r="S4">
-        <v>0.2476067075669904</v>
+        <v>0.001999611663738352</v>
       </c>
       <c r="T4">
-        <v>0.2476067075669904</v>
+        <v>0.002102735909172698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H5">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N5">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O5">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P5">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q5">
-        <v>44.73145220384075</v>
+        <v>0.6908386745288888</v>
       </c>
       <c r="R5">
-        <v>44.73145220384075</v>
+        <v>6.217548070759999</v>
       </c>
       <c r="S5">
-        <v>0.4816699421043527</v>
+        <v>0.003299172707872739</v>
       </c>
       <c r="T5">
-        <v>0.4816699421043527</v>
+        <v>0.003469318092712565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H6">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N6">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O6">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P6">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q6">
-        <v>7.53535584896909</v>
+        <v>0.1170565445393333</v>
       </c>
       <c r="R6">
-        <v>7.53535584896909</v>
+        <v>1.053508900854</v>
       </c>
       <c r="S6">
-        <v>0.08114099222553287</v>
+        <v>0.0005590158328721489</v>
       </c>
       <c r="T6">
-        <v>0.08114099222553287</v>
+        <v>0.0005878454736450067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,793 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.91277310909319</v>
+        <v>0.02936066666666666</v>
       </c>
       <c r="H7">
-        <v>1.91277310909319</v>
+        <v>0.08808199999999999</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.00718314257145935</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.49088395880867</v>
+        <v>1.530533</v>
       </c>
       <c r="N7">
-        <v>1.49088395880867</v>
+        <v>3.061066</v>
       </c>
       <c r="O7">
-        <v>0.03070745665293309</v>
+        <v>0.02987600563547634</v>
       </c>
       <c r="P7">
-        <v>0.03070745665293309</v>
+        <v>0.02094451671511558</v>
       </c>
       <c r="Q7">
-        <v>2.851722745187623</v>
+        <v>0.04493746923533333</v>
       </c>
       <c r="R7">
-        <v>2.851722745187623</v>
+        <v>0.269624815412</v>
       </c>
       <c r="S7">
-        <v>0.03070745665293309</v>
+        <v>0.0002146036079453496</v>
       </c>
       <c r="T7">
-        <v>0.03070745665293309</v>
+        <v>0.0001504474496549887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.927719</v>
+      </c>
+      <c r="H8">
+        <v>5.783157</v>
+      </c>
+      <c r="I8">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J8">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.006796</v>
+      </c>
+      <c r="N8">
+        <v>12.013592</v>
+      </c>
+      <c r="O8">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P8">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q8">
+        <v>11.579414778324</v>
+      </c>
+      <c r="R8">
+        <v>69.47648866994399</v>
+      </c>
+      <c r="S8">
+        <v>0.05529871244663111</v>
+      </c>
+      <c r="T8">
+        <v>0.03876705679113684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.927719</v>
+      </c>
+      <c r="H9">
+        <v>5.783157</v>
+      </c>
+      <c r="I9">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J9">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.744669</v>
+      </c>
+      <c r="O9">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P9">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q9">
+        <v>3.691369193337</v>
+      </c>
+      <c r="R9">
+        <v>33.222322740033</v>
+      </c>
+      <c r="S9">
+        <v>0.01762852160186983</v>
+      </c>
+      <c r="T9">
+        <v>0.01853766212214326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.927719</v>
+      </c>
+      <c r="H10">
+        <v>5.783157</v>
+      </c>
+      <c r="I10">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J10">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N10">
+        <v>42.783134</v>
+      </c>
+      <c r="O10">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P10">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q10">
+        <v>27.491286763782</v>
+      </c>
+      <c r="R10">
+        <v>247.421580874038</v>
+      </c>
+      <c r="S10">
+        <v>0.131287529693128</v>
+      </c>
+      <c r="T10">
+        <v>0.1380583080797831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>1.927719</v>
+      </c>
+      <c r="H11">
+        <v>5.783157</v>
+      </c>
+      <c r="I11">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J11">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N11">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P11">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q11">
+        <v>45.35805858713999</v>
+      </c>
+      <c r="R11">
+        <v>408.22252728426</v>
+      </c>
+      <c r="S11">
+        <v>0.216612176605245</v>
+      </c>
+      <c r="T11">
+        <v>0.2277833293192403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.927719</v>
+      </c>
+      <c r="H12">
+        <v>5.783157</v>
+      </c>
+      <c r="I12">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J12">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.986849</v>
+      </c>
+      <c r="N12">
+        <v>11.960547</v>
+      </c>
+      <c r="O12">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P12">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q12">
+        <v>7.685524567431</v>
+      </c>
+      <c r="R12">
+        <v>69.169721106879</v>
+      </c>
+      <c r="S12">
+        <v>0.03670303043738106</v>
+      </c>
+      <c r="T12">
+        <v>0.03859588412874863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>1.927719</v>
+      </c>
+      <c r="H13">
+        <v>5.783157</v>
+      </c>
+      <c r="I13">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="J13">
+        <v>0.4716200954126058</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.530533</v>
+      </c>
+      <c r="N13">
+        <v>3.061066</v>
+      </c>
+      <c r="O13">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P13">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q13">
+        <v>2.950437544227</v>
+      </c>
+      <c r="R13">
+        <v>17.702625265362</v>
+      </c>
+      <c r="S13">
+        <v>0.0140901246283509</v>
+      </c>
+      <c r="T13">
+        <v>0.009877854971553728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H14">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J14">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.006796</v>
+      </c>
+      <c r="N14">
+        <v>12.013592</v>
+      </c>
+      <c r="O14">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P14">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q14">
+        <v>12.79664193109067</v>
+      </c>
+      <c r="R14">
+        <v>76.779851586544</v>
+      </c>
+      <c r="S14">
+        <v>0.06111170866376965</v>
+      </c>
+      <c r="T14">
+        <v>0.04284224669169668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H15">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J15">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.744669</v>
+      </c>
+      <c r="O15">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P15">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q15">
+        <v>4.079405626873111</v>
+      </c>
+      <c r="R15">
+        <v>36.71465064185801</v>
+      </c>
+      <c r="S15">
+        <v>0.01948163037875705</v>
+      </c>
+      <c r="T15">
+        <v>0.02048633967760371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H16">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J16">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N16">
+        <v>42.783134</v>
+      </c>
+      <c r="O16">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P16">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q16">
+        <v>30.38116862344311</v>
+      </c>
+      <c r="R16">
+        <v>273.430517610988</v>
+      </c>
+      <c r="S16">
+        <v>0.1450884642845103</v>
+      </c>
+      <c r="T16">
+        <v>0.1525709863521181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H17">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J17">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N17">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P17">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q17">
+        <v>50.12609406786222</v>
+      </c>
+      <c r="R17">
+        <v>451.13484661076</v>
+      </c>
+      <c r="S17">
+        <v>0.2393824312365379</v>
+      </c>
+      <c r="T17">
+        <v>0.2517278946278423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H18">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J18">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.986849</v>
+      </c>
+      <c r="N18">
+        <v>11.960547</v>
+      </c>
+      <c r="O18">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P18">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q18">
+        <v>8.493426293539333</v>
+      </c>
+      <c r="R18">
+        <v>76.44083664185401</v>
+      </c>
+      <c r="S18">
+        <v>0.04056125005318</v>
+      </c>
+      <c r="T18">
+        <v>0.04265308037276717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.130360666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.391082000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="J19">
+        <v>0.5211967620159349</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.530533</v>
+      </c>
+      <c r="N19">
+        <v>3.061066</v>
+      </c>
+      <c r="O19">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P19">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q19">
+        <v>3.260587302235334</v>
+      </c>
+      <c r="R19">
+        <v>19.563523813412</v>
+      </c>
+      <c r="S19">
+        <v>0.01557127739918009</v>
+      </c>
+      <c r="T19">
+        <v>0.01091621429390687</v>
       </c>
     </row>
   </sheetData>
